--- a/EM Analyzer/bin/Debug/Hanaka_reduced - Third.xlsx
+++ b/EM Analyzer/bin/Debug/Hanaka_reduced - Third.xlsx
@@ -247,10 +247,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>261.65422343324246</v>
+        <v>260.35846994535513</v>
       </c>
       <c r="E3" s="1">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F3" s="1">
         <v>264.90411985018716</v>
@@ -259,22 +259,22 @@
         <v>267</v>
       </c>
       <c r="H3" s="1">
-        <v>182.6388224191804</v>
+        <v>182.85175572782919</v>
       </c>
       <c r="I3" s="1">
-        <v>180.66254681647945</v>
+        <v>180.87490636704123</v>
       </c>
       <c r="J3" s="1">
-        <v>254.11919191919188</v>
+        <v>249.20306122448977</v>
       </c>
       <c r="K3" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L3" s="1">
-        <v>52.508896686978147</v>
+        <v>52.292719130868164</v>
       </c>
       <c r="M3" s="1">
-        <v>49.023220973782784</v>
+        <v>48.810861423220977</v>
       </c>
     </row>
   </sheetData>
